--- a/data/unchecked/manual_collect/china/henan/henanCaseStatistics_20200212.xlsx
+++ b/data/unchecked/manual_collect/china/henan/henanCaseStatistics_20200212.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\yiqing\pkuvis.github.io\NCP\data\unchecked\manual_collect\china\henan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\yiqing\COVID-19\data\unchecked\manual_collect\china\henan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23975660-C9C4-4E34-B48C-7FB0A7D7D157}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDCB532-A2EA-44C3-8F5F-12CBC3317D85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1161,7 +1161,7 @@
   <dimension ref="A1:AN179"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3"/>
+      <selection activeCell="X183" sqref="A1:AN179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3090,9 +3090,7 @@
         <v>80</v>
       </c>
       <c r="H26" s="3"/>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
+      <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -6194,9 +6192,7 @@
         <v>127</v>
       </c>
       <c r="H69" s="3"/>
-      <c r="I69" s="3">
-        <v>0</v>
-      </c>
+      <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
@@ -8432,9 +8428,7 @@
         <v>157</v>
       </c>
       <c r="H100" s="3"/>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
+      <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
@@ -8938,9 +8932,7 @@
         <v>164</v>
       </c>
       <c r="H107" s="3"/>
-      <c r="I107" s="3">
-        <v>0</v>
-      </c>
+      <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
@@ -9372,9 +9364,7 @@
         <v>171</v>
       </c>
       <c r="H113" s="3"/>
-      <c r="I113" s="3">
-        <v>0</v>
-      </c>
+      <c r="I113" s="3"/>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
@@ -9878,9 +9868,7 @@
         <v>177</v>
       </c>
       <c r="H120" s="3"/>
-      <c r="I120" s="3">
-        <v>0</v>
-      </c>
+      <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
@@ -14066,9 +14054,7 @@
         <v>241</v>
       </c>
       <c r="H178" s="3"/>
-      <c r="I178" s="3">
-        <v>0</v>
-      </c>
+      <c r="I178" s="3"/>
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
       <c r="L178" s="3"/>
